--- a/From_Maital/words_2019-08-31_MN.xlsx
+++ b/From_Maital/words_2019-08-31_MN.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasharp/Documents/Nick-Grad/Neta_Lab/Words/From_Maital/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA886E94-439D-D844-8020-E555035F3016}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3310E92-66D7-304E-AD13-D583CB6BD363}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-3480" windowWidth="32000" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="amb.words" sheetId="1" r:id="rId1"/>
+    <sheet name="final.words" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="90">
   <si>
     <t>wordlist</t>
   </si>
@@ -288,6 +289,15 @@
   </si>
   <si>
     <t>CAPABLE</t>
+  </si>
+  <si>
+    <t>AMB vs POS</t>
+  </si>
+  <si>
+    <t>AMB vs NEG</t>
+  </si>
+  <si>
+    <t>POS vs NEG</t>
   </si>
 </sst>
 </file>
@@ -1158,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U44"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="P2" sqref="P2:U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2404,26 +2414,26 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>111</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0.46078431372549</v>
-      </c>
-      <c r="D26" s="4">
-        <v>945.86676673964303</v>
+      <c r="A26">
+        <v>421</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>0.51485148514851498</v>
+      </c>
+      <c r="D26">
+        <v>949.55509762880695</v>
       </c>
       <c r="E26">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F26">
-        <v>985</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>17</v>
+        <v>45297</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
       </c>
       <c r="P26">
         <v>392</v>
@@ -2446,22 +2456,22 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>421</v>
+        <v>490</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C27">
-        <v>0.51485148514851498</v>
+        <v>0.54901960784313697</v>
       </c>
       <c r="D27">
-        <v>949.55509762880695</v>
+        <v>953.796130531774</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27">
-        <v>45297</v>
+        <v>5292</v>
       </c>
       <c r="G27" t="s">
         <v>7</v>
@@ -2504,23 +2514,23 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>490</v>
-      </c>
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28">
-        <v>0.54901960784313697</v>
+      <c r="A28" s="2">
+        <v>48</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.55445544554455495</v>
       </c>
       <c r="D28">
-        <v>953.796130531774</v>
+        <v>962.44821454526902</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>5292</v>
+        <v>33104</v>
       </c>
       <c r="G28" t="s">
         <v>7</v>
@@ -2545,23 +2555,23 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>48</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.55445544554455495</v>
+      <c r="A29">
+        <v>455</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>0.50495049504950495</v>
       </c>
       <c r="D29">
-        <v>962.44821454526902</v>
+        <v>970.04678647737705</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F29">
-        <v>33104</v>
+        <v>8075</v>
       </c>
       <c r="G29" t="s">
         <v>7</v>
@@ -2569,146 +2579,94 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>455</v>
+        <v>568</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C30">
-        <v>0.50495049504950495</v>
+        <v>0.54901960784313697</v>
       </c>
       <c r="D30">
-        <v>970.04678647737705</v>
+        <v>976.39137262764302</v>
       </c>
       <c r="E30">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F30">
-        <v>8075</v>
+        <v>11429</v>
       </c>
       <c r="G30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>568</v>
-      </c>
-      <c r="B31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31">
-        <v>0.54901960784313697</v>
+      <c r="A31" s="1">
+        <v>498</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.61386138613861396</v>
       </c>
       <c r="D31">
-        <v>976.39137262764302</v>
+        <v>887.01376149170198</v>
       </c>
       <c r="E31">
         <v>5</v>
       </c>
       <c r="F31">
-        <v>11429</v>
+        <v>1446</v>
       </c>
       <c r="G31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>498</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0.61386138613861396</v>
-      </c>
-      <c r="D32">
-        <v>887.01376149170198</v>
+      <c r="A32" s="3">
+        <v>574</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.59405940594059403</v>
+      </c>
+      <c r="D32" s="3">
+        <v>876.08128934577496</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F32">
-        <v>1446</v>
+        <v>25455</v>
       </c>
       <c r="G32" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>574</v>
+        <v>70</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.59405940594059403</v>
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>0.51960784313725505</v>
       </c>
       <c r="D33" s="3">
-        <v>876.08128934577496</v>
+        <v>877.325834353446</v>
       </c>
       <c r="E33">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F33">
-        <v>25455</v>
+        <v>47766</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>70</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34">
-        <v>0.51960784313725505</v>
-      </c>
-      <c r="D34" s="3">
-        <v>877.325834353446</v>
-      </c>
-      <c r="E34">
-        <v>5</v>
-      </c>
-      <c r="F34">
-        <v>47766</v>
-      </c>
-      <c r="G34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
-        <v>458</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0.43564356435643597</v>
-      </c>
-      <c r="D35" s="3">
-        <v>879.46569135411505</v>
-      </c>
-      <c r="E35">
-        <v>7</v>
-      </c>
-      <c r="F35">
-        <v>67666</v>
-      </c>
-      <c r="G35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F36">
-        <f>AVERAGE(F2:F35)</f>
-        <v>28275.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -2846,6 +2804,52 @@
         <v>7255</v>
       </c>
       <c r="G44" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>111</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.46078431372549</v>
+      </c>
+      <c r="D45" s="4">
+        <v>945.86676673964303</v>
+      </c>
+      <c r="E45">
+        <v>9</v>
+      </c>
+      <c r="F45">
+        <v>985</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>458</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.43564356435643597</v>
+      </c>
+      <c r="D46" s="3">
+        <v>879.46569135411505</v>
+      </c>
+      <c r="E46">
+        <v>7</v>
+      </c>
+      <c r="F46">
+        <v>67666</v>
+      </c>
+      <c r="G46" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2855,4 +2859,1580 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80648C0-1EAF-FD4C-978D-A8A647225BA7}">
+  <dimension ref="A1:O65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>539</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.59405940594059403</v>
+      </c>
+      <c r="D2">
+        <v>882.40519905926101</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>1780</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>514</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>0.52</v>
+      </c>
+      <c r="D3">
+        <v>882.91369672525298</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>886</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3">
+        <f>AVERAGE(F2:F33)</f>
+        <v>27897.375</v>
+      </c>
+      <c r="N3">
+        <f>AVERAGE(F50:F65)</f>
+        <v>17505.8125</v>
+      </c>
+      <c r="O3">
+        <f>AVERAGE(F34:F49)</f>
+        <v>6653.625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>0.46</v>
+      </c>
+      <c r="D4">
+        <v>887.66784766286503</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>63264</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <f>_xlfn.T.TEST(F2:F33,F50:F65,2,3)</f>
+        <v>0.34034671689883611</v>
+      </c>
+      <c r="J4">
+        <f>_xlfn.T.TEST(F2:F33,F34:F49,2,3)</f>
+        <v>2.4375767473436812E-3</v>
+      </c>
+      <c r="K4">
+        <f>_xlfn.T.TEST(F50:F65,F34:F49,2,3)</f>
+        <v>0.25711364399631148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>259</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.56862745098039202</v>
+      </c>
+      <c r="D5">
+        <v>888.17044014701901</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>3226</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>161</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>0.45098039215686297</v>
+      </c>
+      <c r="D6">
+        <v>890.20700341425595</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>7415</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>563</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.59405940594059403</v>
+      </c>
+      <c r="D7">
+        <v>892.21276715178999</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>24678</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>129</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>0.50980392156862697</v>
+      </c>
+      <c r="D8">
+        <v>893.05563165985802</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>3571</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>0.53921568627451</v>
+      </c>
+      <c r="D9">
+        <v>896.96416687326598</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>1364</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <f>_xlfn.T.TEST(E2:E33,E50:E65,2,3)</f>
+        <v>0.12096831791503894</v>
+      </c>
+      <c r="J9">
+        <f>_xlfn.T.TEST(E2:E33,E34:E49,2,3)</f>
+        <v>0.89245416495318119</v>
+      </c>
+      <c r="K9">
+        <f>_xlfn.T.TEST(E34:E49,E50:E65,2,3)</f>
+        <v>0.15557810501781735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>159</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>0.480392156862745</v>
+      </c>
+      <c r="D10">
+        <v>901.53270342313999</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>54882</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>425</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.445544554455446</v>
+      </c>
+      <c r="D11">
+        <v>901.59563859484103</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>58218</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>433</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>0.49019607843137297</v>
+      </c>
+      <c r="D12">
+        <v>906.71691584701</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>22982</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>552</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13">
+        <v>0.480392156862745</v>
+      </c>
+      <c r="D13">
+        <v>909.78186431374297</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>9737</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>581</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14">
+        <v>0.51960784313725505</v>
+      </c>
+      <c r="D14">
+        <v>909.81460536859095</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>15658</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>205</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>0.48</v>
+      </c>
+      <c r="D15">
+        <v>913.78520563626705</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>13334</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>88</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.441176470588235</v>
+      </c>
+      <c r="D16">
+        <v>915.16063602603595</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>170581</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>484</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <v>0.51485148514851498</v>
+      </c>
+      <c r="D17">
+        <v>926.46445687423295</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>27949</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>402</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.43137254901960798</v>
+      </c>
+      <c r="D18">
+        <v>927.04720744120596</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>7196</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>83</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.42156862745098</v>
+      </c>
+      <c r="D19">
+        <v>931.64514739887898</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>22587</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>95</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="D20">
+        <v>932.36180635354901</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>84927</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>473</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>0.48</v>
+      </c>
+      <c r="D21">
+        <v>934.03510201732195</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>13497</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>110</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>0.50980392156862697</v>
+      </c>
+      <c r="D22">
+        <v>934.45827887378903</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>57767</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>471</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.61386138613861396</v>
+      </c>
+      <c r="D23">
+        <v>935.16281946336301</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>3082</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>261</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.56862745098039202</v>
+      </c>
+      <c r="D24">
+        <v>940.98592905012697</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>17803</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>395</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.46534653465346498</v>
+      </c>
+      <c r="D25" s="4">
+        <v>941.37241727040396</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>28468</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>421</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>0.51485148514851498</v>
+      </c>
+      <c r="D26">
+        <v>949.55509762880695</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>45297</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>490</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <v>0.54901960784313697</v>
+      </c>
+      <c r="D27">
+        <v>953.796130531774</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>5292</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>48</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.55445544554455495</v>
+      </c>
+      <c r="D28">
+        <v>962.44821454526902</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>33104</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>455</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>0.50495049504950495</v>
+      </c>
+      <c r="D29">
+        <v>970.04678647737705</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>8075</v>
+      </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>568</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30">
+        <v>0.54901960784313697</v>
+      </c>
+      <c r="D30">
+        <v>976.39137262764302</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>11429</v>
+      </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>498</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.61386138613861396</v>
+      </c>
+      <c r="D31">
+        <v>887.01376149170198</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>1446</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>574</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.59405940594059403</v>
+      </c>
+      <c r="D32" s="3">
+        <v>876.08128934577496</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>25455</v>
+      </c>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>70</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>0.51960784313725505</v>
+      </c>
+      <c r="D33" s="3">
+        <v>877.325834353446</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>47766</v>
+      </c>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>184</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
+        <v>686.64039100000002</v>
+      </c>
+      <c r="E34" s="5">
+        <v>4</v>
+      </c>
+      <c r="F34" s="5">
+        <v>43736</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>506</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.99019608000000003</v>
+      </c>
+      <c r="D35" s="5">
+        <v>726.17784400000005</v>
+      </c>
+      <c r="E35" s="5">
+        <v>5</v>
+      </c>
+      <c r="F35" s="5">
+        <v>13149</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>481</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
+        <v>731.78400399999998</v>
+      </c>
+      <c r="E36" s="5">
+        <v>6</v>
+      </c>
+      <c r="F36" s="5">
+        <v>2386</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>116</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.97058823999999999</v>
+      </c>
+      <c r="D37" s="5">
+        <v>737.45721000000003</v>
+      </c>
+      <c r="E37" s="5">
+        <v>6</v>
+      </c>
+      <c r="F37" s="5">
+        <v>3155</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>145</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0.99019608000000003</v>
+      </c>
+      <c r="D38" s="5">
+        <v>742.21759899999995</v>
+      </c>
+      <c r="E38" s="5">
+        <v>5</v>
+      </c>
+      <c r="F38" s="5">
+        <v>3565</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>142</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0.98039215999999996</v>
+      </c>
+      <c r="D39" s="5">
+        <v>744.03568299999995</v>
+      </c>
+      <c r="E39" s="5">
+        <v>6</v>
+      </c>
+      <c r="F39" s="5">
+        <v>5362</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>127</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.94117647000000004</v>
+      </c>
+      <c r="D40" s="5">
+        <v>774.69583299999999</v>
+      </c>
+      <c r="E40" s="5">
+        <v>5</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1171</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>610</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.96078430999999997</v>
+      </c>
+      <c r="D41" s="5">
+        <v>777.72338200000002</v>
+      </c>
+      <c r="E41" s="5">
+        <v>6</v>
+      </c>
+      <c r="F41" s="5">
+        <v>191</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>226</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0.94117647000000004</v>
+      </c>
+      <c r="D42" s="5">
+        <v>779.03215599999999</v>
+      </c>
+      <c r="E42" s="5">
+        <v>7</v>
+      </c>
+      <c r="F42" s="5">
+        <v>3227</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <v>423</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0.99009901</v>
+      </c>
+      <c r="D43" s="5">
+        <v>787.19044799999995</v>
+      </c>
+      <c r="E43" s="5">
+        <v>4</v>
+      </c>
+      <c r="F43" s="5">
+        <v>6979</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <v>607</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0.94117647000000004</v>
+      </c>
+      <c r="D44" s="5">
+        <v>788.73803699999996</v>
+      </c>
+      <c r="E44" s="5">
+        <v>5</v>
+      </c>
+      <c r="F44" s="5">
+        <v>3418</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>629</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0.98039215999999996</v>
+      </c>
+      <c r="D45" s="5">
+        <v>798.24995000000001</v>
+      </c>
+      <c r="E45" s="5">
+        <v>5</v>
+      </c>
+      <c r="F45" s="5">
+        <v>2161</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>608</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0.91176471000000003</v>
+      </c>
+      <c r="D46" s="5">
+        <v>823.76577899999995</v>
+      </c>
+      <c r="E46" s="5">
+        <v>7</v>
+      </c>
+      <c r="F46" s="5">
+        <v>13510</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <v>328</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0.88235293999999997</v>
+      </c>
+      <c r="D47" s="5">
+        <v>834.99916299999995</v>
+      </c>
+      <c r="E47" s="5">
+        <v>7</v>
+      </c>
+      <c r="F47" s="5">
+        <v>3855</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>367</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0.97058823999999999</v>
+      </c>
+      <c r="D48" s="5">
+        <v>848.17377599999998</v>
+      </c>
+      <c r="E48" s="5">
+        <v>7</v>
+      </c>
+      <c r="F48" s="5">
+        <v>191</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>522</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0.95098039000000001</v>
+      </c>
+      <c r="D49" s="5">
+        <v>854.58171400000003</v>
+      </c>
+      <c r="E49" s="5">
+        <v>9</v>
+      </c>
+      <c r="F49" s="5">
+        <v>402</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>345</v>
+      </c>
+      <c r="B50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50">
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="D50">
+        <v>694.48342608851794</v>
+      </c>
+      <c r="E50">
+        <v>7</v>
+      </c>
+      <c r="F50">
+        <v>419</v>
+      </c>
+      <c r="G50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>382</v>
+      </c>
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51">
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="D51">
+        <v>736.01298897604602</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <v>134404</v>
+      </c>
+      <c r="G51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>376</v>
+      </c>
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>740.29495235704201</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <v>42113</v>
+      </c>
+      <c r="G52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>214</v>
+      </c>
+      <c r="B53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53">
+        <v>9.8039215686274508E-3</v>
+      </c>
+      <c r="D53">
+        <v>761.32064044879405</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <v>59724</v>
+      </c>
+      <c r="G53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>580</v>
+      </c>
+      <c r="B54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54">
+        <v>9.8039215686274508E-3</v>
+      </c>
+      <c r="D54">
+        <v>767.61636530719602</v>
+      </c>
+      <c r="E54">
+        <v>9</v>
+      </c>
+      <c r="F54">
+        <v>287</v>
+      </c>
+      <c r="G54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>224</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55">
+        <v>0.03</v>
+      </c>
+      <c r="D55">
+        <v>769.24960031009903</v>
+      </c>
+      <c r="E55">
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <v>767</v>
+      </c>
+      <c r="G55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>100</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56">
+        <v>3.9603960396039598E-2</v>
+      </c>
+      <c r="D56">
+        <v>771.33594040942398</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56">
+        <v>17078</v>
+      </c>
+      <c r="G56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>332</v>
+      </c>
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>774.81397342832202</v>
+      </c>
+      <c r="E57">
+        <v>8</v>
+      </c>
+      <c r="F57">
+        <v>403</v>
+      </c>
+      <c r="G57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>69</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58">
+        <v>3.9215686274509803E-2</v>
+      </c>
+      <c r="D58">
+        <v>780.43156531001898</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <v>5524</v>
+      </c>
+      <c r="G58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>99</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59">
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="D59">
+        <v>789.31731093972201</v>
+      </c>
+      <c r="E59">
+        <v>8</v>
+      </c>
+      <c r="F59">
+        <v>1124</v>
+      </c>
+      <c r="G59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>547</v>
+      </c>
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60">
+        <v>9.9009900990098994E-3</v>
+      </c>
+      <c r="D60">
+        <v>790.97594328910702</v>
+      </c>
+      <c r="E60">
+        <v>6</v>
+      </c>
+      <c r="F60">
+        <v>3475</v>
+      </c>
+      <c r="G60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>17</v>
+      </c>
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="D61">
+        <v>795.70754856402596</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61">
+        <v>644</v>
+      </c>
+      <c r="G61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>203</v>
+      </c>
+      <c r="B62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62">
+        <v>5.8823529411764698E-2</v>
+      </c>
+      <c r="D62">
+        <v>804.27813246999301</v>
+      </c>
+      <c r="E62">
+        <v>8</v>
+      </c>
+      <c r="F62">
+        <v>2642</v>
+      </c>
+      <c r="G62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>569</v>
+      </c>
+      <c r="B63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63">
+        <v>9.8039215686274508E-3</v>
+      </c>
+      <c r="D63">
+        <v>808.71406694476002</v>
+      </c>
+      <c r="E63">
+        <v>7</v>
+      </c>
+      <c r="F63">
+        <v>1007</v>
+      </c>
+      <c r="G63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>452</v>
+      </c>
+      <c r="B64" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64">
+        <v>3.9603960396039598E-2</v>
+      </c>
+      <c r="D64">
+        <v>828.18821533388802</v>
+      </c>
+      <c r="E64">
+        <v>6</v>
+      </c>
+      <c r="F64">
+        <v>5751</v>
+      </c>
+      <c r="G64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>231</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="2">
+        <v>4.9019607843137303E-2</v>
+      </c>
+      <c r="D65" s="2">
+        <v>828.72020040292</v>
+      </c>
+      <c r="E65" s="2">
+        <v>9</v>
+      </c>
+      <c r="F65" s="2">
+        <v>4731</v>
+      </c>
+      <c r="G65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>